--- a/raw_data/UNICEF_PROG_REG_GLOBAL/Update_UNICEFProgRegion_DIRECTORY_CROSSWALK (Beta).xlsx
+++ b/raw_data/UNICEF_PROG_REG_GLOBAL/Update_UNICEFProgRegion_DIRECTORY_CROSSWALK (Beta).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef.sharepoint.com/teams/DAPM-ChildMortality/Shared Documents/UN IGME data/update country.info.CME/Country-and-Region-Metadata/raw_data/UNICEF_Programme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef.sharepoint.com/teams/DAPM-ChildMortality/Shared Documents/UN IGME data/update country.info.CME/Country-and-Region-Metadata/raw_data/UNICEF_PROG_REG_GLOBAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{7702A2C0-06C4-4921-8031-6FFFFF39FE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65B6DEDB-14DB-48E6-B190-8F06CA5CA31E}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{7702A2C0-06C4-4921-8031-6FFFFF39FE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16FF5CA-C408-41D3-9540-E586AFC2DA0E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1725" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTORY_CROSSWALK (Beta)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DIRECTORY_CROSSWALK (Beta)'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DIRECTORY_CROSSWALK (Beta)'!$A$1:$L$250</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2174,11 +2174,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>73</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>81</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>149</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>151</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>196</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>197</v>
       </c>
@@ -3445,7 +3446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>200</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>8</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>23</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>49</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>52</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>53</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>55</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>58</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>101</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>102</v>
       </c>
@@ -4699,7 +4700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>103</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>104</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>105</v>
       </c>
@@ -4813,7 +4814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>106</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>107</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>108</v>
       </c>
@@ -4927,7 +4928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>109</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>110</v>
       </c>
@@ -5079,7 +5080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>139</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>140</v>
       </c>
@@ -5155,7 +5156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>141</v>
       </c>
@@ -5269,7 +5270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>144</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>145</v>
       </c>
@@ -6409,7 +6410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>185</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>201</v>
       </c>
@@ -7435,7 +7436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>24</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>111</v>
       </c>
@@ -7739,7 +7740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>112</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>206</v>
       </c>
@@ -7853,7 +7854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>207</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>208</v>
       </c>
@@ -7929,7 +7930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>209</v>
       </c>
@@ -7967,7 +7968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>210</v>
       </c>
@@ -8005,7 +8006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>211</v>
       </c>
@@ -8043,7 +8044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>212</v>
       </c>
@@ -8081,7 +8082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>213</v>
       </c>
@@ -8119,7 +8120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>214</v>
       </c>
@@ -8157,7 +8158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>215</v>
       </c>
@@ -8195,7 +8196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>216</v>
       </c>
@@ -8233,7 +8234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>217</v>
       </c>
@@ -8271,7 +8272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>218</v>
       </c>
@@ -8309,7 +8310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>219</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>220</v>
       </c>
@@ -8385,7 +8386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>221</v>
       </c>
@@ -8423,7 +8424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>222</v>
       </c>
@@ -8461,7 +8462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>223</v>
       </c>
@@ -8499,7 +8500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>224</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>225</v>
       </c>
@@ -8575,7 +8576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>226</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>227</v>
       </c>
@@ -8651,7 +8652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>228</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>229</v>
       </c>
@@ -8727,7 +8728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>230</v>
       </c>
@@ -8765,7 +8766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>231</v>
       </c>
@@ -8803,7 +8804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>232</v>
       </c>
@@ -8841,7 +8842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>233</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>234</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>235</v>
       </c>
@@ -8955,7 +8956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>236</v>
       </c>
@@ -8993,7 +8994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>237</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>238</v>
       </c>
@@ -9069,7 +9070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>239</v>
       </c>
@@ -9107,7 +9108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>240</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>241</v>
       </c>
@@ -9183,7 +9184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>242</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>243</v>
       </c>
@@ -9259,7 +9260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>244</v>
       </c>
@@ -9297,7 +9298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>245</v>
       </c>
@@ -9335,7 +9336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>246</v>
       </c>
@@ -9373,7 +9374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>247</v>
       </c>
@@ -9411,7 +9412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>248</v>
       </c>
@@ -9449,7 +9450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>249</v>
       </c>
@@ -9487,7 +9488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>250</v>
       </c>
@@ -11159,7 +11160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>156</v>
       </c>
@@ -11615,7 +11616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>168</v>
       </c>
@@ -11692,7 +11693,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L250" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Programme Country"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L250">
     <sortCondition ref="E1:E250"/>
   </sortState>
@@ -11703,32 +11710,57 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="37893236-cb76-4d6f-8a18-4c624154e39c">RFF2MQFYXHK7-870072624-105832</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="37893236-cb76-4d6f-8a18-4c624154e39c">
-      <Url>https://unicef.sharepoint.com/teams/DAPM-ChildMortality/_layouts/15/DocIdRedir.aspx?ID=RFF2MQFYXHK7-870072624-105832</Url>
-      <Description>RFF2MQFYXHK7-870072624-105832</Description>
-    </_dlc_DocIdUrl>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f8563a7a-d9fa-431f-b50c-34632ce7e22e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100136DC1853B882B4A8BB14DB670B2A2D3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c683f7be9f0d396716ce49390aa9eada">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37893236-cb76-4d6f-8a18-4c624154e39c" xmlns:ns3="f8563a7a-d9fa-431f-b50c-34632ce7e22e" xmlns:ns4="ca283e0b-db31-4043-a2ef-b80661bf084a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6535429bee677a8fa0693d9ffe697f6b" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100136DC1853B882B4A8BB14DB670B2A2D3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f28e78ef6e4f0f2a2a2482d8db47776a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37893236-cb76-4d6f-8a18-4c624154e39c" xmlns:ns3="f8563a7a-d9fa-431f-b50c-34632ce7e22e" xmlns:ns4="ca283e0b-db31-4043-a2ef-b80661bf084a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3f994f0b4e3408e34fd8b168c2d4f01" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="37893236-cb76-4d6f-8a18-4c624154e39c"/>
     <xsd:import namespace="f8563a7a-d9fa-431f-b50c-34632ce7e22e"/>
     <xsd:import namespace="ca283e0b-db31-4043-a2ef-b80661bf084a"/>
@@ -11757,6 +11789,7 @@
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -11890,6 +11923,11 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="28" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca283e0b-db31-4043-a2ef-b80661bf084a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -12005,65 +12043,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="37893236-cb76-4d6f-8a18-4c624154e39c">RFF2MQFYXHK7-870072624-105832</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="37893236-cb76-4d6f-8a18-4c624154e39c">
+      <Url>https://unicef.sharepoint.com/teams/DAPM-ChildMortality/_layouts/15/DocIdRedir.aspx?ID=RFF2MQFYXHK7-870072624-105832</Url>
+      <Description>RFF2MQFYXHK7-870072624-105832</Description>
+    </_dlc_DocIdUrl>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f8563a7a-d9fa-431f-b50c-34632ce7e22e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C71992D0-7EF4-45D0-B4AB-E7398AB14CAD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9443B52F-2F2E-4CE5-B64A-3667113A5A34}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5634630-2C35-4E57-8EFD-0459567BA160}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED7043A-A2A2-4862-8D30-1E78558A88AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12075,30 +12092,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{248876D0-4DBB-4E45-B6B8-E31098562B82}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C71992D0-7EF4-45D0-B4AB-E7398AB14CAD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="37893236-cb76-4d6f-8a18-4c624154e39c"/>
-    <ds:schemaRef ds:uri="f8563a7a-d9fa-431f-b50c-34632ce7e22e"/>
-    <ds:schemaRef ds:uri="ca283e0b-db31-4043-a2ef-b80661bf084a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9443B52F-2F2E-4CE5-B64A-3667113A5A34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>